--- a/unit_1/Discussion Guide.xlsx
+++ b/unit_1/Discussion Guide.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B8E9E5-89F8-42B9-8484-540099C1B5A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF22CF3-E73C-4CBA-BF82-13DD43EA5371}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Topics</t>
   </si>
@@ -77,6 +85,60 @@
   </si>
   <si>
     <t>What do you wish a product or service could offer to help with your dog?</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Listening to commands, limit aggression</t>
+  </si>
+  <si>
+    <t>1 dog got out into the neighborhood</t>
+  </si>
+  <si>
+    <t>Open door</t>
+  </si>
+  <si>
+    <t>Leashing dog before opening door, not multitasking</t>
+  </si>
+  <si>
+    <t>buzz collar for car trips to prevent aggression</t>
+  </si>
+  <si>
+    <t>moderately effective, listens somewhat, ignores outdoors</t>
+  </si>
+  <si>
+    <t>phone integration, some machine learning (dB meter)</t>
+  </si>
+  <si>
+    <t>if certain threshold is passed, automatically start</t>
+  </si>
+  <si>
+    <t>not super well built, entirely manual, charging, no indicator</t>
+  </si>
+  <si>
+    <t>light, sound, shock, buzz - have to cycle to desired mode</t>
+  </si>
+  <si>
+    <t>no out of range indicator, low battery</t>
+  </si>
+  <si>
+    <t>multiple tiers of product without clear differentiators</t>
+  </si>
+  <si>
+    <t>anything made by Kong will be worthwhile</t>
+  </si>
+  <si>
+    <t>tile - last seen by tile device</t>
+  </si>
+  <si>
+    <t>use vibrations as commands</t>
   </si>
 </sst>
 </file>
@@ -403,106 +465,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/unit_1/Discussion Guide.xlsx
+++ b/unit_1/Discussion Guide.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF22CF3-E73C-4CBA-BF82-13DD43EA5371}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EEFE2-B99B-4ACA-BE15-8D1A672DD91D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Topics</t>
   </si>
@@ -139,6 +139,63 @@
   </si>
   <si>
     <t>use vibrations as commands</t>
+  </si>
+  <si>
+    <t>Jumping on people, nipping. Leash issues. Other animals.</t>
+  </si>
+  <si>
+    <t>Never allowed on beds or downstairs</t>
+  </si>
+  <si>
+    <t>Jumping fences</t>
+  </si>
+  <si>
+    <t>Adding trees for privacy, gate to block living room (greet)</t>
+  </si>
+  <si>
+    <t>Redirected nibbling urge to toys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>An auto-feeder to reward good behavior remotely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate </t>
+  </si>
+  <si>
+    <t>Nest camera has a slight delay</t>
+  </si>
+  <si>
+    <t>Alerts about barking in realtime</t>
+  </si>
+  <si>
+    <t>Bark collar with the realtime alert and talks to other</t>
+  </si>
+  <si>
+    <t>Ability to export data - certain times of day for behaviors</t>
+  </si>
+  <si>
+    <t>Activity map by floor or room</t>
+  </si>
+  <si>
+    <t>Territorial, got worse. Used a trainer</t>
+  </si>
+  <si>
+    <t>Trained him to stop aggression about stairs</t>
+  </si>
+  <si>
+    <t>Running away, solved by building fence</t>
+  </si>
+  <si>
+    <t>Vibrating collar but didn't work due to bad reaction</t>
+  </si>
+  <si>
+    <t>Spot collar gps and app</t>
+  </si>
+  <si>
+    <t>Don't like that there is a shock option</t>
   </si>
 </sst>
 </file>
@@ -465,179 +522,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="50.453125" customWidth="1"/>
+    <col min="5" max="5" width="48.90625" customWidth="1"/>
+    <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
         <v>36</v>
       </c>
     </row>
